--- a/assets/texts/texts.xlsx
+++ b/assets/texts/texts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203773" uniqueCount="1910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213650" uniqueCount="1911">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -6869,6 +6869,9 @@
   </si>
   <si>
     <t xml:space="preserve">Elapsed: &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">月</t>
   </si>
 </sst>
 </file>
@@ -8396,7 +8399,9 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G13"/>
+      <c r="G13" t="s">
+        <v>1910</v>
+      </c>
       <c r="H13" t="s">
         <v>78</v>
       </c>
@@ -16846,6 +16851,9 @@
       <c r="G211" t="s">
         <v>43</v>
       </c>
+      <c r="H211" t="s">
+        <v>163</v>
+      </c>
       <c r="I211" t="s">
         <v>43</v>
       </c>

--- a/assets/texts/texts.xlsx
+++ b/assets/texts/texts.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213650" uniqueCount="1911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368767" uniqueCount="1936">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -6872,6 +6872,82 @@
   </si>
   <si>
     <t xml:space="preserve">月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Format:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format:https://en.wikipedia.org/wiki/Date_format_by_country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YYYY:MM:DD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM:DD:YYYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date
+Format:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO 8601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y/M/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D/M/Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/D/Y</t>
   </si>
 </sst>
 </file>
@@ -16793,10 +16869,10 @@
     </row>
     <row r="210" spans="2:21">
       <c r="B210" t="s">
-        <v>1069</v>
+        <v>1750</v>
       </c>
       <c r="C210" t="s">
-        <v>37</v>
+        <v>918</v>
       </c>
       <c r="D210" t="s">
         <v>40</v>
@@ -16805,159 +16881,168 @@
         <v>41</v>
       </c>
       <c r="F210" t="s">
-        <v>1760</v>
+        <v>43</v>
       </c>
       <c r="G210" t="s">
-        <v>1075</v>
+        <v>43</v>
       </c>
       <c r="H210" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="I210" t="s">
-        <v>1076</v>
+        <v>43</v>
       </c>
       <c r="J210" t="s">
-        <v>1072</v>
+        <v>43</v>
       </c>
       <c r="K210" t="s">
-        <v>1073</v>
+        <v>43</v>
       </c>
       <c r="L210" t="s">
-        <v>1074</v>
+        <v>43</v>
       </c>
       <c r="M210" t="s">
-        <v>1070</v>
+        <v>43</v>
       </c>
       <c r="N210" t="s">
-        <v>1071</v>
+        <v>43</v>
       </c>
     </row>
     <row r="211" spans="2:21">
       <c r="B211" t="s">
-        <v>1750</v>
+        <v>205</v>
       </c>
       <c r="C211" t="s">
-        <v>918</v>
+        <v>39</v>
       </c>
       <c r="D211" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E211" t="s">
         <v>41</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="G211" t="s">
-        <v>43</v>
+        <v>974</v>
       </c>
       <c r="H211" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="I211" t="s">
-        <v>43</v>
+        <v>533</v>
       </c>
       <c r="J211" t="s">
-        <v>43</v>
+        <v>534</v>
       </c>
       <c r="K211" t="s">
-        <v>43</v>
+        <v>535</v>
       </c>
       <c r="L211" t="s">
-        <v>43</v>
+        <v>536</v>
       </c>
       <c r="M211" t="s">
-        <v>43</v>
+        <v>861</v>
       </c>
       <c r="N211" t="s">
-        <v>43</v>
+        <v>537</v>
       </c>
     </row>
     <row r="212" spans="2:21">
       <c r="B212" t="s">
-        <v>205</v>
+        <v>1746</v>
       </c>
       <c r="C212" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D212" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E212" t="s">
         <v>41</v>
       </c>
       <c r="F212" t="s">
-        <v>208</v>
+        <v>1812</v>
       </c>
       <c r="G212" t="s">
-        <v>974</v>
+        <v>1816</v>
       </c>
       <c r="H212" t="s">
         <v>131</v>
       </c>
       <c r="I212" t="s">
-        <v>533</v>
+        <v>1817</v>
       </c>
       <c r="J212" t="s">
-        <v>534</v>
+        <v>1818</v>
       </c>
       <c r="K212" t="s">
-        <v>535</v>
+        <v>1819</v>
       </c>
       <c r="L212" t="s">
-        <v>536</v>
+        <v>1820</v>
       </c>
       <c r="M212" t="s">
-        <v>861</v>
+        <v>1821</v>
       </c>
       <c r="N212" t="s">
-        <v>537</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="213" spans="2:21">
       <c r="B213" t="s">
-        <v>1746</v>
+        <v>1755</v>
       </c>
       <c r="C213" t="s">
         <v>37</v>
       </c>
       <c r="D213" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E213" t="s">
         <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="G213" t="s">
-        <v>1816</v>
+        <v>1823</v>
       </c>
       <c r="H213" t="s">
         <v>131</v>
       </c>
       <c r="I213" t="s">
-        <v>1817</v>
+        <v>1824</v>
       </c>
       <c r="J213" t="s">
-        <v>1818</v>
+        <v>1825</v>
       </c>
       <c r="K213" t="s">
-        <v>1819</v>
+        <v>1826</v>
       </c>
       <c r="L213" t="s">
-        <v>1820</v>
+        <v>1827</v>
       </c>
       <c r="M213" t="s">
-        <v>1821</v>
+        <v>1828</v>
       </c>
       <c r="N213" t="s">
-        <v>1822</v>
+        <v>1829</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>39</v>
+      </c>
+      <c r="S213" t="s">
+        <v>39</v>
+      </c>
+      <c r="U213" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="C214" t="s">
         <v>37</v>
@@ -16969,45 +17054,36 @@
         <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>1814</v>
+        <v>1756</v>
       </c>
       <c r="G214" t="s">
-        <v>1823</v>
+        <v>1783</v>
       </c>
       <c r="H214" t="s">
         <v>131</v>
       </c>
       <c r="I214" t="s">
-        <v>1824</v>
+        <v>1788</v>
       </c>
       <c r="J214" t="s">
-        <v>1825</v>
+        <v>1791</v>
       </c>
       <c r="K214" t="s">
-        <v>1826</v>
+        <v>1798</v>
       </c>
       <c r="L214" t="s">
-        <v>1827</v>
+        <v>1802</v>
       </c>
       <c r="M214" t="s">
-        <v>1828</v>
+        <v>1805</v>
       </c>
       <c r="N214" t="s">
-        <v>1829</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>39</v>
-      </c>
-      <c r="S214" t="s">
-        <v>39</v>
-      </c>
-      <c r="U214" t="s">
-        <v>37</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="215">
       <c r="B215" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C215" t="s">
         <v>37</v>
@@ -17019,36 +17095,36 @@
         <v>41</v>
       </c>
       <c r="F215" t="s">
-        <v>1756</v>
+        <v>1799</v>
       </c>
       <c r="G215" t="s">
-        <v>1783</v>
+        <v>1794</v>
       </c>
       <c r="H215" t="s">
         <v>131</v>
       </c>
       <c r="I215" t="s">
-        <v>1788</v>
+        <v>1830</v>
       </c>
       <c r="J215" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="K215" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="L215" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="M215" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="N215" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="216">
       <c r="B216" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="C216" t="s">
         <v>37</v>
@@ -17060,36 +17136,36 @@
         <v>41</v>
       </c>
       <c r="F216" t="s">
-        <v>1799</v>
+        <v>1752</v>
       </c>
       <c r="G216" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
       <c r="H216" t="s">
         <v>131</v>
       </c>
       <c r="I216" t="s">
-        <v>1830</v>
+        <v>1778</v>
       </c>
       <c r="J216" t="s">
-        <v>1793</v>
+        <v>1752</v>
       </c>
       <c r="K216" t="s">
-        <v>1799</v>
+        <v>1775</v>
       </c>
       <c r="L216" t="s">
-        <v>1799</v>
+        <v>1772</v>
       </c>
       <c r="M216" t="s">
-        <v>1806</v>
+        <v>1773</v>
       </c>
       <c r="N216" t="s">
-        <v>1810</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="s">
-        <v>1752</v>
+        <v>1761</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -17101,36 +17177,36 @@
         <v>41</v>
       </c>
       <c r="F217" t="s">
-        <v>1752</v>
+        <v>1761</v>
       </c>
       <c r="G217" t="s">
-        <v>1779</v>
+        <v>1762</v>
       </c>
       <c r="H217" t="s">
         <v>131</v>
       </c>
       <c r="I217" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
       <c r="J217" t="s">
-        <v>1752</v>
+        <v>1764</v>
       </c>
       <c r="K217" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
       <c r="L217" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="M217" t="s">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="N217" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" t="s">
-        <v>1761</v>
+        <v>1768</v>
       </c>
       <c r="C218" t="s">
         <v>37</v>
@@ -17142,77 +17218,77 @@
         <v>41</v>
       </c>
       <c r="F218" t="s">
-        <v>1761</v>
+        <v>1768</v>
       </c>
       <c r="G218" t="s">
-        <v>1762</v>
+        <v>1780</v>
       </c>
       <c r="H218" t="s">
         <v>131</v>
       </c>
       <c r="I218" t="s">
-        <v>1763</v>
+        <v>1776</v>
       </c>
       <c r="J218" t="s">
-        <v>1764</v>
+        <v>1777</v>
       </c>
       <c r="K218" t="s">
-        <v>1765</v>
+        <v>1774</v>
       </c>
       <c r="L218" t="s">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="M218" t="s">
-        <v>1764</v>
+        <v>1770</v>
       </c>
       <c r="N218" t="s">
-        <v>1767</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" t="s">
-        <v>1768</v>
+        <v>1831</v>
       </c>
       <c r="C219" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D219" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E219" t="s">
         <v>41</v>
       </c>
       <c r="F219" t="s">
-        <v>1768</v>
+        <v>1833</v>
       </c>
       <c r="G219" t="s">
-        <v>1780</v>
+        <v>1836</v>
       </c>
       <c r="H219" t="s">
         <v>131</v>
       </c>
       <c r="I219" t="s">
-        <v>1776</v>
+        <v>1837</v>
       </c>
       <c r="J219" t="s">
-        <v>1777</v>
+        <v>1838</v>
       </c>
       <c r="K219" t="s">
-        <v>1774</v>
+        <v>1839</v>
       </c>
       <c r="L219" t="s">
-        <v>1770</v>
+        <v>1840</v>
       </c>
       <c r="M219" t="s">
-        <v>1770</v>
+        <v>1841</v>
       </c>
       <c r="N219" t="s">
-        <v>1771</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="220">
       <c r="B220" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="C220" t="s">
         <v>39</v>
@@ -17224,77 +17300,74 @@
         <v>41</v>
       </c>
       <c r="F220" t="s">
-        <v>1833</v>
+        <v>1888</v>
       </c>
       <c r="G220" t="s">
-        <v>1836</v>
+        <v>1847</v>
       </c>
       <c r="H220" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I220" t="s">
-        <v>1837</v>
+        <v>1848</v>
       </c>
       <c r="J220" t="s">
-        <v>1838</v>
+        <v>1849</v>
       </c>
       <c r="K220" t="s">
-        <v>1839</v>
+        <v>1843</v>
       </c>
       <c r="L220" t="s">
-        <v>1840</v>
+        <v>1844</v>
       </c>
       <c r="M220" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="N220" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="221">
       <c r="B221" t="s">
-        <v>1834</v>
+        <v>1856</v>
       </c>
       <c r="C221" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D221" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E221" t="s">
         <v>41</v>
       </c>
       <c r="F221" t="s">
-        <v>1888</v>
+        <v>1853</v>
       </c>
       <c r="G221" t="s">
-        <v>1847</v>
-      </c>
-      <c r="H221" t="s">
-        <v>134</v>
+        <v>1047</v>
       </c>
       <c r="I221" t="s">
-        <v>1848</v>
+        <v>1047</v>
       </c>
       <c r="J221" t="s">
-        <v>1849</v>
+        <v>1047</v>
       </c>
       <c r="K221" t="s">
-        <v>1843</v>
+        <v>1047</v>
       </c>
       <c r="L221" t="s">
-        <v>1844</v>
+        <v>1047</v>
       </c>
       <c r="M221" t="s">
-        <v>1845</v>
+        <v>1047</v>
       </c>
       <c r="N221" t="s">
-        <v>1846</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C222" t="s">
         <v>38</v>
@@ -17306,7 +17379,7 @@
         <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>1853</v>
+        <v>1873</v>
       </c>
       <c r="G222" t="s">
         <v>1047</v>
@@ -17332,7 +17405,7 @@
     </row>
     <row r="223">
       <c r="B223" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C223" t="s">
         <v>38</v>
@@ -17344,7 +17417,7 @@
         <v>41</v>
       </c>
       <c r="F223" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="G223" t="s">
         <v>1047</v>
@@ -17370,7 +17443,7 @@
     </row>
     <row r="224">
       <c r="B224" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C224" t="s">
         <v>38</v>
@@ -17382,7 +17455,7 @@
         <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>1874</v>
+        <v>936</v>
       </c>
       <c r="G224" t="s">
         <v>1047</v>
@@ -17408,7 +17481,7 @@
     </row>
     <row r="225">
       <c r="B225" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="C225" t="s">
         <v>38</v>
@@ -17420,7 +17493,7 @@
         <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>936</v>
+        <v>1885</v>
       </c>
       <c r="G225" t="s">
         <v>1047</v>
@@ -17446,7 +17519,7 @@
     </row>
     <row r="226">
       <c r="B226" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C226" t="s">
         <v>38</v>
@@ -17458,7 +17531,7 @@
         <v>41</v>
       </c>
       <c r="F226" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="G226" t="s">
         <v>1047</v>
@@ -17484,7 +17557,7 @@
     </row>
     <row r="227">
       <c r="B227" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C227" t="s">
         <v>38</v>
@@ -17496,7 +17569,7 @@
         <v>41</v>
       </c>
       <c r="F227" t="s">
-        <v>1869</v>
+        <v>1875</v>
       </c>
       <c r="G227" t="s">
         <v>1047</v>
@@ -17522,7 +17595,7 @@
     </row>
     <row r="228">
       <c r="B228" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C228" t="s">
         <v>38</v>
@@ -17534,7 +17607,7 @@
         <v>41</v>
       </c>
       <c r="F228" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="G228" t="s">
         <v>1047</v>
@@ -17560,7 +17633,7 @@
     </row>
     <row r="229">
       <c r="B229" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C229" t="s">
         <v>38</v>
@@ -17572,7 +17645,7 @@
         <v>41</v>
       </c>
       <c r="F229" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="G229" t="s">
         <v>1047</v>
@@ -17598,7 +17671,7 @@
     </row>
     <row r="230">
       <c r="B230" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C230" t="s">
         <v>38</v>
@@ -17610,7 +17683,7 @@
         <v>41</v>
       </c>
       <c r="F230" t="s">
-        <v>1870</v>
+        <v>1877</v>
       </c>
       <c r="G230" t="s">
         <v>1047</v>
@@ -17636,7 +17709,7 @@
     </row>
     <row r="231">
       <c r="B231" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C231" t="s">
         <v>38</v>
@@ -17648,7 +17721,7 @@
         <v>41</v>
       </c>
       <c r="F231" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="G231" t="s">
         <v>1047</v>
@@ -17674,7 +17747,7 @@
     </row>
     <row r="232">
       <c r="B232" t="s">
-        <v>1867</v>
+        <v>1879</v>
       </c>
       <c r="C232" t="s">
         <v>38</v>
@@ -17686,7 +17759,7 @@
         <v>41</v>
       </c>
       <c r="F232" t="s">
-        <v>1878</v>
+        <v>1887</v>
       </c>
       <c r="G232" t="s">
         <v>1047</v>
@@ -17712,10 +17785,10 @@
     </row>
     <row r="233">
       <c r="B233" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="C233" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D233" t="s">
         <v>40</v>
@@ -17724,7 +17797,7 @@
         <v>41</v>
       </c>
       <c r="F233" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="G233" t="s">
         <v>1047</v>
@@ -17750,10 +17823,10 @@
     </row>
     <row r="234">
       <c r="B234" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="C234" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D234" t="s">
         <v>40</v>
@@ -17762,36 +17835,36 @@
         <v>41</v>
       </c>
       <c r="F234" t="s">
-        <v>1882</v>
+        <v>43</v>
       </c>
       <c r="G234" t="s">
-        <v>1047</v>
+        <v>43</v>
       </c>
       <c r="I234" t="s">
-        <v>1047</v>
+        <v>43</v>
       </c>
       <c r="J234" t="s">
-        <v>1047</v>
+        <v>43</v>
       </c>
       <c r="K234" t="s">
-        <v>1047</v>
+        <v>43</v>
       </c>
       <c r="L234" t="s">
-        <v>1047</v>
+        <v>43</v>
       </c>
       <c r="M234" t="s">
-        <v>1047</v>
+        <v>43</v>
       </c>
       <c r="N234" t="s">
-        <v>1047</v>
+        <v>43</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" t="s">
-        <v>1883</v>
+        <v>1889</v>
       </c>
       <c r="C235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D235" t="s">
         <v>40</v>
@@ -17800,36 +17873,36 @@
         <v>41</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>1905</v>
       </c>
       <c r="G235" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="I235" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="J235" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="K235" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="L235" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="M235" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="N235" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="C236" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D236" t="s">
         <v>40</v>
@@ -17838,36 +17911,39 @@
         <v>41</v>
       </c>
       <c r="F236" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="G236" t="s">
-        <v>1052</v>
+        <v>1893</v>
+      </c>
+      <c r="H236" t="s">
+        <v>134</v>
       </c>
       <c r="I236" t="s">
-        <v>1052</v>
+        <v>1894</v>
       </c>
       <c r="J236" t="s">
-        <v>1052</v>
+        <v>1895</v>
       </c>
       <c r="K236" t="s">
-        <v>1052</v>
+        <v>1896</v>
       </c>
       <c r="L236" t="s">
-        <v>1052</v>
+        <v>1897</v>
       </c>
       <c r="M236" t="s">
-        <v>1052</v>
+        <v>1898</v>
       </c>
       <c r="N236" t="s">
-        <v>1052</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="237">
       <c r="B237" t="s">
-        <v>1891</v>
+        <v>1901</v>
       </c>
       <c r="C237" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D237" t="s">
         <v>40</v>
@@ -17876,74 +17952,71 @@
         <v>41</v>
       </c>
       <c r="F237" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="G237" t="s">
-        <v>1893</v>
-      </c>
-      <c r="H237" t="s">
-        <v>134</v>
+        <v>1052</v>
       </c>
       <c r="I237" t="s">
-        <v>1894</v>
+        <v>1052</v>
       </c>
       <c r="J237" t="s">
-        <v>1895</v>
+        <v>1052</v>
       </c>
       <c r="K237" t="s">
-        <v>1896</v>
+        <v>1052</v>
       </c>
       <c r="L237" t="s">
-        <v>1897</v>
+        <v>1052</v>
       </c>
       <c r="M237" t="s">
-        <v>1898</v>
+        <v>1052</v>
       </c>
       <c r="N237" t="s">
-        <v>1899</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" t="s">
-        <v>1901</v>
+        <v>1908</v>
       </c>
       <c r="C238" t="s">
         <v>37</v>
       </c>
       <c r="D238" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E238" t="s">
         <v>41</v>
       </c>
       <c r="F238" t="s">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="G238" t="s">
-        <v>1052</v>
+        <v>43</v>
       </c>
       <c r="I238" t="s">
-        <v>1052</v>
+        <v>43</v>
       </c>
       <c r="J238" t="s">
-        <v>1052</v>
+        <v>43</v>
       </c>
       <c r="K238" t="s">
-        <v>1052</v>
+        <v>43</v>
       </c>
       <c r="L238" t="s">
-        <v>1052</v>
+        <v>43</v>
       </c>
       <c r="M238" t="s">
-        <v>1052</v>
+        <v>43</v>
       </c>
       <c r="N238" t="s">
-        <v>1052</v>
+        <v>43</v>
       </c>
     </row>
     <row r="239">
       <c r="B239" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="C239" t="s">
         <v>37</v>
@@ -17955,31 +18028,220 @@
         <v>41</v>
       </c>
       <c r="F239" t="s">
-        <v>1909</v>
+        <v>1915</v>
       </c>
       <c r="G239" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="I239" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="J239" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="K239" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="L239" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="M239" t="s">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="N239" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="240"/>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C240" t="s">
+        <v>37</v>
+      </c>
+      <c r="D240" t="s">
+        <v>40</v>
+      </c>
+      <c r="E240" t="s">
+        <v>41</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G240" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I240" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J240" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K240" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L240" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M240" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N240" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C241" t="s">
+        <v>37</v>
+      </c>
+      <c r="D241" t="s">
+        <v>49</v>
+      </c>
+      <c r="E241" t="s">
+        <v>41</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G241" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I241" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J241" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K241" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L241" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M241" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N241" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C242" t="s">
+        <v>37</v>
+      </c>
+      <c r="D242" t="s">
+        <v>40</v>
+      </c>
+      <c r="E242" t="s">
+        <v>41</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G242" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I242" t="s">
+        <v>1933</v>
+      </c>
+      <c r="J242" t="s">
+        <v>1933</v>
+      </c>
+      <c r="K242" t="s">
+        <v>1933</v>
+      </c>
+      <c r="L242" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M242" t="s">
+        <v>1933</v>
+      </c>
+      <c r="N242" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C243" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" t="s">
+        <v>40</v>
+      </c>
+      <c r="E243" t="s">
+        <v>41</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1934</v>
+      </c>
+      <c r="G243" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I243" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J243" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K243" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L243" t="s">
+        <v>1934</v>
+      </c>
+      <c r="M243" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N243" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C244" t="s">
+        <v>37</v>
+      </c>
+      <c r="D244" t="s">
+        <v>40</v>
+      </c>
+      <c r="E244" t="s">
+        <v>41</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G244" t="s">
+        <v>1935</v>
+      </c>
+      <c r="I244" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J244" t="s">
+        <v>1935</v>
+      </c>
+      <c r="K244" t="s">
+        <v>1935</v>
+      </c>
+      <c r="L244" t="s">
+        <v>1935</v>
+      </c>
+      <c r="M244" t="s">
+        <v>1935</v>
+      </c>
+      <c r="N244" t="s">
+        <v>1935</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
